--- a/Assembly/SE842170047_BOM.xlsx
+++ b/Assembly/SE842170047_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\BHPPS\EEDev\EEDev-MAPS_SENSOR_HEAD_BOARD_PR\Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED424494-9463-4426-9D55-138F9AEBF20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{417A97F9-F7C2-4161-BA91-83B8A945DA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19440" yWindow="4275" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="1152" windowWidth="15852" windowHeight="11328" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="255">
   <si>
     <t>Bill Of Materials</t>
   </si>
@@ -71,6 +71,9 @@
     <t>Fitted</t>
   </si>
   <si>
+    <t>Not Fitted</t>
+  </si>
+  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -80,7 +83,7 @@
     <t>C1, C13, C37</t>
   </si>
   <si>
-    <t>C2, C6, C10, C29, C30</t>
+    <t>C2, C6, C10, C29, C30, C77, C78</t>
   </si>
   <si>
     <t>C3, C5</t>
@@ -98,7 +101,7 @@
     <t>C9, C11, C51, C52, C54, C56, C61, C62, C63, C64, C70, C71, C72, C73</t>
   </si>
   <si>
-    <t>C14</t>
+    <t>C14, C75, C76</t>
   </si>
   <si>
     <t>C16</t>
@@ -125,31 +128,61 @@
     <t>D1</t>
   </si>
   <si>
-    <t>D2, D3, D4, D5</t>
+    <t>D2, D3, D4, D5, D9, D10, D11, D12</t>
   </si>
   <si>
     <t>D6, D7, D8</t>
   </si>
   <si>
-    <t>L1</t>
+    <t>IC1</t>
+  </si>
+  <si>
+    <t>IC2</t>
+  </si>
+  <si>
+    <t>IC3</t>
+  </si>
+  <si>
+    <t>IC4</t>
+  </si>
+  <si>
+    <t>IC5</t>
+  </si>
+  <si>
+    <t>IC6</t>
+  </si>
+  <si>
+    <t>IC7</t>
+  </si>
+  <si>
+    <t>IC8, IC9, IC10</t>
+  </si>
+  <si>
+    <t>IC11, IC12, IC13</t>
+  </si>
+  <si>
+    <t>L1, L2, L3</t>
   </si>
   <si>
     <t>P1, P2, P3, P4, P5, P6, P7, P8, P9, P10, P11, P12</t>
   </si>
   <si>
+    <t>PL1</t>
+  </si>
+  <si>
     <t>PL2</t>
   </si>
   <si>
-    <t>PL3, PL4, PL5</t>
-  </si>
-  <si>
-    <t>PL?</t>
+    <t>PL3, PL5</t>
+  </si>
+  <si>
+    <t>PL4</t>
   </si>
   <si>
     <t>R1</t>
   </si>
   <si>
-    <t>R2, R5, R17, R18, R19, R20, R21, R22, R28, R29, R30, R31, R34, R35, R36, R37, R40, R41, R42, R43, R49, R50, R55, R56, R61, R62</t>
+    <t>R2, R5, R17, R18, R19, R20, R21, R22, R28, R29, R30, R31, R34, R35, R36, R37, R40, R41, R42, R43, R49, R50, R55, R56, R61, R62, R84, R85, R86, R87, R88, R89, R90, R91, R92</t>
   </si>
   <si>
     <t>R3</t>
@@ -215,33 +248,6 @@
     <t>R69, R76, R83</t>
   </si>
   <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>U7</t>
-  </si>
-  <si>
-    <t>U8, U9, U10</t>
-  </si>
-  <si>
-    <t>U11, U12, U13</t>
-  </si>
-  <si>
     <t>X1</t>
   </si>
   <si>
@@ -305,21 +311,48 @@
     <t>KK/95048/0189</t>
   </si>
   <si>
+    <t>KK/95311/0117</t>
+  </si>
+  <si>
+    <t>KK/95312/0246</t>
+  </si>
+  <si>
+    <t>KK/95312/0244</t>
+  </si>
+  <si>
+    <t>KK/95414/0147</t>
+  </si>
+  <si>
+    <t>KK/95312/0195</t>
+  </si>
+  <si>
+    <t>KK/95312/0196</t>
+  </si>
+  <si>
+    <t>KK/95413/0138</t>
+  </si>
+  <si>
+    <t>KK/95312/0245</t>
+  </si>
+  <si>
+    <t>KK/95300/0171</t>
+  </si>
+  <si>
     <t>KK/97900/1033</t>
   </si>
   <si>
     <t>TESTPAD1</t>
   </si>
   <si>
+    <t>KK/96510/1748</t>
+  </si>
+  <si>
     <t>KK/96510/2206</t>
   </si>
   <si>
     <t>KK/96510/2208</t>
   </si>
   <si>
-    <t>KK/96510/1748</t>
-  </si>
-  <si>
     <t>KK/96059/0725</t>
   </si>
   <si>
@@ -389,33 +422,6 @@
     <t>KK/96059/0485</t>
   </si>
   <si>
-    <t>KK/95311/0117</t>
-  </si>
-  <si>
-    <t>KK/95312/0246</t>
-  </si>
-  <si>
-    <t>KK/95312/0244</t>
-  </si>
-  <si>
-    <t>KK/95414/0147</t>
-  </si>
-  <si>
-    <t>KK/95312/0195</t>
-  </si>
-  <si>
-    <t>KK/95312/0196</t>
-  </si>
-  <si>
-    <t>KK/95413/0138</t>
-  </si>
-  <si>
-    <t>KK/95312/0245</t>
-  </si>
-  <si>
-    <t>KK/95300/0171</t>
-  </si>
-  <si>
     <t>KK/95710/0303</t>
   </si>
   <si>
@@ -434,45 +440,45 @@
     <t>1N4148W-7-F</t>
   </si>
   <si>
+    <t>LM27762DSSR</t>
+  </si>
+  <si>
+    <t>TS982IDWT</t>
+  </si>
+  <si>
+    <t>AD8572ARZ</t>
+  </si>
+  <si>
+    <t>STM32F756VGT6</t>
+  </si>
+  <si>
+    <t>LIS3MDLTR</t>
+  </si>
+  <si>
+    <t>AIS2IHTR</t>
+  </si>
+  <si>
+    <t>24AA64T-I/MC</t>
+  </si>
+  <si>
+    <t>AD623ARZ</t>
+  </si>
+  <si>
+    <t>LM2902KPWR</t>
+  </si>
+  <si>
     <t>P0.8 X H0.5 X 0.9SM</t>
   </si>
   <si>
+    <t>53307-1471</t>
+  </si>
+  <si>
     <t>M50-3932042</t>
   </si>
   <si>
     <t>M50-3532042</t>
   </si>
   <si>
-    <t>53307-1471</t>
-  </si>
-  <si>
-    <t>LM27762DSSR</t>
-  </si>
-  <si>
-    <t>TS982IDWT</t>
-  </si>
-  <si>
-    <t>AD8572ARZ</t>
-  </si>
-  <si>
-    <t>STM32F756VGT6</t>
-  </si>
-  <si>
-    <t>LIS3MDLTR</t>
-  </si>
-  <si>
-    <t>AIS2IHTR</t>
-  </si>
-  <si>
-    <t>24AA64T-I/MC</t>
-  </si>
-  <si>
-    <t>AD623ARZ</t>
-  </si>
-  <si>
-    <t>LM2902KPWR</t>
-  </si>
-  <si>
     <t>MAX7375AXR805+T</t>
   </si>
   <si>
@@ -536,18 +542,45 @@
     <t>DIODE SWITCHING POWER</t>
   </si>
   <si>
+    <t>SWITCHING REGULATOR</t>
+  </si>
+  <si>
+    <t>DUAL BIPOLAR OPERATIONAL AMPLIFIER</t>
+  </si>
+  <si>
+    <t>DUAL RAIL to RAIL OP AMP</t>
+  </si>
+  <si>
+    <t>MICROCONTROLLER MCU</t>
+  </si>
+  <si>
+    <t>3 AXIS MAGNETIC SENSOR</t>
+  </si>
+  <si>
+    <t>3 AXIS DIGITAL ACCELEROMETER 14BIT</t>
+  </si>
+  <si>
+    <t>64K I2C SERIAL EEPROM</t>
+  </si>
+  <si>
+    <t>SINGLE RAIL to RAIL INSTRUMENTATION AMPLIFIER</t>
+  </si>
+  <si>
+    <t>IC,QUAD OP.AMP,TSSOP-14,ST,LM2902KPWR</t>
+  </si>
+  <si>
     <t>FERRIT BEADS 0603 600R 0.5A 25%</t>
   </si>
   <si>
+    <t>PLUG HEADER 2x7WAY STRAIGHT MOLEX</t>
+  </si>
+  <si>
     <t>PLUG 20WAY RIGHT ANGLE PTH HARWIN</t>
   </si>
   <si>
     <t>PLUG,20WAY,STRAIGHT,PITCH 1.27MM,HWN,M50-3532042</t>
   </si>
   <si>
-    <t>PLUG HEADER 2x7WAY STRAIGHT MOLEX</t>
-  </si>
-  <si>
     <t>RESISTOR 0603 0.063W 0.1% 178K</t>
   </si>
   <si>
@@ -617,33 +650,6 @@
     <t>RESISTOR 0603 0.063W 1% 750R</t>
   </si>
   <si>
-    <t>SWITCHING REGULATOR</t>
-  </si>
-  <si>
-    <t>DUAL BIPOLAR OPERATIONAL AMPLIFIER</t>
-  </si>
-  <si>
-    <t>DUAL RAIL to RAIL OP AMP</t>
-  </si>
-  <si>
-    <t>MICROCONTROLLER MCU</t>
-  </si>
-  <si>
-    <t>3 AXIS MAGNETIC SENSOR</t>
-  </si>
-  <si>
-    <t>3 AXIS DIGITAL ACCELEROMETER 14BIT</t>
-  </si>
-  <si>
-    <t>64K I2C SERIAL EEPROM</t>
-  </si>
-  <si>
-    <t>SINGLE RAIL to RAIL INSTRUMENTATION AMPLIFIER</t>
-  </si>
-  <si>
-    <t>IC,QUAD OP.AMP,DIP14,ST,LM2902KPWR</t>
-  </si>
-  <si>
     <t>OSCILLATOR,SMD,CMOS,MAXIM,MAX7375AXR805+T</t>
   </si>
   <si>
@@ -704,6 +710,21 @@
     <t>34.5V</t>
   </si>
   <si>
+    <t>400mA</t>
+  </si>
+  <si>
+    <t>1.5MHz</t>
+  </si>
+  <si>
+    <t>1MB/32BIT</t>
+  </si>
+  <si>
+    <t>800KHz</t>
+  </si>
+  <si>
+    <t>1.2MHz</t>
+  </si>
+  <si>
     <t>600R</t>
   </si>
   <si>
@@ -774,18 +795,6 @@
   </si>
   <si>
     <t>750R</t>
-  </si>
-  <si>
-    <t>400mA</t>
-  </si>
-  <si>
-    <t>1.5MHz</t>
-  </si>
-  <si>
-    <t>1MB/32BIT</t>
-  </si>
-  <si>
-    <t>800KHz</t>
   </si>
   <si>
     <t>8MHz</t>
@@ -1348,7 +1357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J70"/>
+  <dimension ref="B2:J71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
@@ -1481,25 +1490,25 @@
         <v>10</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
@@ -1514,44 +1523,44 @@
         <v>3</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="16" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I11" s="16"/>
       <c r="J11" s="16" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="23">
-        <f t="shared" ref="B12:B67" si="0">ROW()-10</f>
+        <f t="shared" ref="B12:B68" si="0">ROW()-10</f>
         <v>2</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="16" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I12" s="16"/>
       <c r="J12" s="16" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
@@ -1566,18 +1575,18 @@
         <v>2</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="16" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I13" s="16"/>
       <c r="J13" s="16" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
@@ -1592,18 +1601,18 @@
         <v>3</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I14" s="16"/>
       <c r="J14" s="16" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="72" x14ac:dyDescent="0.3">
@@ -1618,18 +1627,18 @@
         <v>24</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="16" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I15" s="16"/>
       <c r="J15" s="16" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
@@ -1644,18 +1653,18 @@
         <v>1</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="16" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I16" s="16"/>
       <c r="J16" s="16" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -1670,18 +1679,18 @@
         <v>14</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G17" s="16"/>
       <c r="H17" s="16" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I17" s="16"/>
       <c r="J17" s="16" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
@@ -1693,21 +1702,21 @@
         <v>10</v>
       </c>
       <c r="D18" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="16" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I18" s="16"/>
       <c r="J18" s="16" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
@@ -1722,18 +1731,18 @@
         <v>1</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G19" s="16"/>
       <c r="H19" s="16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I19" s="16"/>
       <c r="J19" s="16" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
@@ -1748,18 +1757,18 @@
         <v>2</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="16" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I20" s="16"/>
       <c r="J20" s="16" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
@@ -1774,18 +1783,18 @@
         <v>3</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="16" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I21" s="16"/>
       <c r="J21" s="16" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
@@ -1800,18 +1809,18 @@
         <v>3</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="16" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I22" s="16"/>
       <c r="J22" s="16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1826,18 +1835,18 @@
         <v>6</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G23" s="16"/>
       <c r="H23" s="16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I23" s="16"/>
       <c r="J23" s="16" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
@@ -1852,18 +1861,18 @@
         <v>3</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G24" s="16"/>
       <c r="H24" s="16" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I24" s="16"/>
       <c r="J24" s="16" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
@@ -1878,18 +1887,18 @@
         <v>3</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G25" s="16"/>
       <c r="H25" s="16" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I25" s="16"/>
       <c r="J25" s="16" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
@@ -1904,23 +1913,23 @@
         <v>1</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I26" s="16"/>
       <c r="J26" s="16" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B27" s="23">
         <f>ROW()-10</f>
         <v>17</v>
@@ -1929,19 +1938,19 @@
         <v>10</v>
       </c>
       <c r="D27" s="16">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
@@ -1958,16 +1967,16 @@
         <v>3</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I28" s="16"/>
       <c r="J28" s="16"/>
@@ -1984,23 +1993,21 @@
         <v>1</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="G29" s="16">
-        <v>742863160</v>
+        <v>91</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>134</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I29" s="16"/>
-      <c r="J29" s="16" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J29" s="16"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="23">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2009,22 +2016,24 @@
         <v>10</v>
       </c>
       <c r="D30" s="16">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
+      <c r="J30" s="16" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="23">
@@ -2038,19 +2047,21 @@
         <v>1</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
+      <c r="J31" s="16" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="23">
@@ -2061,22 +2072,24 @@
         <v>10</v>
       </c>
       <c r="D32" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
+      <c r="J32" s="16" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="23">
@@ -2090,16 +2103,16 @@
         <v>1</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
@@ -2116,21 +2129,21 @@
         <v>1</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="G34" s="16"/>
+        <v>96</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>139</v>
+      </c>
       <c r="H34" s="16" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I34" s="16"/>
-      <c r="J34" s="16" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="J34" s="16"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="23">
         <f>ROW()-10</f>
         <v>25</v>
@@ -2139,22 +2152,22 @@
         <v>10</v>
       </c>
       <c r="D35" s="16">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="G35" s="16"/>
+        <v>97</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>140</v>
+      </c>
       <c r="H35" s="16" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I35" s="16"/>
-      <c r="J35" s="16" t="s">
-        <v>224</v>
-      </c>
+      <c r="J35" s="16"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="23">
@@ -2165,21 +2178,23 @@
         <v>10</v>
       </c>
       <c r="D36" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="G36" s="16"/>
+        <v>98</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>141</v>
+      </c>
       <c r="H36" s="16" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="I36" s="16"/>
       <c r="J36" s="16" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
@@ -2191,21 +2206,23 @@
         <v>10</v>
       </c>
       <c r="D37" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="G37" s="16"/>
+        <v>99</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>142</v>
+      </c>
       <c r="H37" s="16" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I37" s="16"/>
       <c r="J37" s="16" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
@@ -2217,24 +2234,26 @@
         <v>10</v>
       </c>
       <c r="D38" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="G38" s="16"/>
+        <v>100</v>
+      </c>
+      <c r="G38" s="16">
+        <v>742863160</v>
+      </c>
       <c r="H38" s="16" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I38" s="16"/>
       <c r="J38" s="16" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B39" s="23">
         <f>ROW()-10</f>
         <v>29</v>
@@ -2243,24 +2262,24 @@
         <v>10</v>
       </c>
       <c r="D39" s="16">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="G39" s="16"/>
+        <v>101</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>143</v>
+      </c>
       <c r="H39" s="16" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="I39" s="16"/>
-      <c r="J39" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J39" s="16"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="23">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2269,24 +2288,24 @@
         <v>10</v>
       </c>
       <c r="D40" s="16">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="G40" s="16"/>
+        <v>102</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>144</v>
+      </c>
       <c r="H40" s="16" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I40" s="16"/>
-      <c r="J40" s="16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J40" s="16"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="23">
         <f>ROW()-10</f>
         <v>31</v>
@@ -2295,22 +2314,22 @@
         <v>10</v>
       </c>
       <c r="D41" s="16">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="G41" s="16"/>
+        <v>103</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>145</v>
+      </c>
       <c r="H41" s="16" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I41" s="16"/>
-      <c r="J41" s="16" t="s">
-        <v>230</v>
-      </c>
+      <c r="J41" s="16"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="23">
@@ -2318,25 +2337,25 @@
         <v>32</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D42" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="G42" s="16"/>
+        <v>104</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>146</v>
+      </c>
       <c r="H42" s="16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I42" s="16"/>
-      <c r="J42" s="16" t="s">
-        <v>231</v>
-      </c>
+      <c r="J42" s="16"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="23">
@@ -2350,19 +2369,19 @@
         <v>1</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="G43" s="16"/>
+        <v>104</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>146</v>
+      </c>
       <c r="H43" s="16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I43" s="16"/>
-      <c r="J43" s="16" t="s">
-        <v>232</v>
-      </c>
+      <c r="J43" s="16"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="23">
@@ -2376,21 +2395,21 @@
         <v>1</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G44" s="16"/>
       <c r="H44" s="16" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I44" s="16"/>
       <c r="J44" s="16" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B45" s="23">
         <f>ROW()-10</f>
         <v>35</v>
@@ -2399,24 +2418,24 @@
         <v>10</v>
       </c>
       <c r="D45" s="16">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G45" s="16"/>
       <c r="H45" s="16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I45" s="16"/>
       <c r="J45" s="16" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="23">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2425,21 +2444,21 @@
         <v>10</v>
       </c>
       <c r="D46" s="16">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G46" s="16"/>
       <c r="H46" s="16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I46" s="16"/>
       <c r="J46" s="16" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
@@ -2454,18 +2473,18 @@
         <v>1</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G47" s="16"/>
       <c r="H47" s="16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I47" s="16"/>
       <c r="J47" s="16" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
@@ -2480,18 +2499,18 @@
         <v>1</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G48" s="16"/>
       <c r="H48" s="16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I48" s="16"/>
       <c r="J48" s="16" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.3">
@@ -2506,21 +2525,21 @@
         <v>1</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G49" s="16"/>
       <c r="H49" s="16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I49" s="16"/>
       <c r="J49" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B50" s="23">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2529,24 +2548,24 @@
         <v>10</v>
       </c>
       <c r="D50" s="16">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G50" s="16"/>
       <c r="H50" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I50" s="16"/>
       <c r="J50" s="16" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B51" s="23">
         <f>ROW()-10</f>
         <v>41</v>
@@ -2555,21 +2574,21 @@
         <v>10</v>
       </c>
       <c r="D51" s="16">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G51" s="16"/>
       <c r="H51" s="16" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I51" s="16"/>
       <c r="J51" s="16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.3">
@@ -2581,21 +2600,21 @@
         <v>10</v>
       </c>
       <c r="D52" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G52" s="16"/>
       <c r="H52" s="16" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I52" s="16"/>
       <c r="J52" s="16" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.3">
@@ -2607,21 +2626,21 @@
         <v>10</v>
       </c>
       <c r="D53" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G53" s="16"/>
       <c r="H53" s="16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I53" s="16"/>
       <c r="J53" s="16" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.3">
@@ -2633,21 +2652,21 @@
         <v>10</v>
       </c>
       <c r="D54" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G54" s="16"/>
       <c r="H54" s="16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I54" s="16"/>
       <c r="J54" s="16" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.3">
@@ -2659,24 +2678,24 @@
         <v>10</v>
       </c>
       <c r="D55" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G55" s="16"/>
       <c r="H55" s="16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I55" s="16"/>
       <c r="J55" s="16" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B56" s="23">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2685,21 +2704,21 @@
         <v>10</v>
       </c>
       <c r="D56" s="16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G56" s="16"/>
       <c r="H56" s="16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I56" s="16"/>
       <c r="J56" s="16" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.3">
@@ -2714,19 +2733,19 @@
         <v>1</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="G57" s="16" t="s">
-        <v>136</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G57" s="16"/>
       <c r="H57" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
+      <c r="J57" s="16" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B58" s="23">
@@ -2740,20 +2759,18 @@
         <v>1</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="G58" s="16" t="s">
-        <v>137</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G58" s="16"/>
       <c r="H58" s="16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I58" s="16"/>
       <c r="J58" s="16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.3">
@@ -2768,20 +2785,18 @@
         <v>1</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="G59" s="16" t="s">
-        <v>138</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G59" s="16"/>
       <c r="H59" s="16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I59" s="16"/>
       <c r="J59" s="16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.3">
@@ -2793,23 +2808,21 @@
         <v>10</v>
       </c>
       <c r="D60" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="G60" s="16" t="s">
-        <v>139</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G60" s="16"/>
       <c r="H60" s="16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I60" s="16"/>
       <c r="J60" s="16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.3">
@@ -2821,22 +2834,22 @@
         <v>10</v>
       </c>
       <c r="D61" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="G61" s="16" t="s">
-        <v>140</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G61" s="16"/>
       <c r="H61" s="16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
+      <c r="J61" s="16" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B62" s="23">
@@ -2847,22 +2860,22 @@
         <v>10</v>
       </c>
       <c r="D62" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="G62" s="16" t="s">
-        <v>141</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G62" s="16"/>
       <c r="H62" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I62" s="16"/>
-      <c r="J62" s="16"/>
+      <c r="J62" s="16" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B63" s="23">
@@ -2873,22 +2886,22 @@
         <v>10</v>
       </c>
       <c r="D63" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="G63" s="16" t="s">
-        <v>142</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G63" s="16"/>
       <c r="H63" s="16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I63" s="16"/>
-      <c r="J63" s="16"/>
+      <c r="J63" s="16" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B64" s="23">
@@ -2902,20 +2915,18 @@
         <v>3</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="G64" s="16" t="s">
-        <v>143</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G64" s="16"/>
       <c r="H64" s="16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I64" s="16"/>
       <c r="J64" s="16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.3">
@@ -2930,19 +2941,19 @@
         <v>3</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="G65" s="16" t="s">
-        <v>144</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G65" s="16"/>
       <c r="H65" s="16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I65" s="16"/>
-      <c r="J65" s="16"/>
+      <c r="J65" s="16" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B66" s="23">
@@ -2953,26 +2964,24 @@
         <v>10</v>
       </c>
       <c r="D66" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="G66" s="16" t="s">
-        <v>145</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G66" s="16"/>
       <c r="H66" s="16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I66" s="16"/>
       <c r="J66" s="16" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B67" s="23">
         <f>ROW()-10</f>
         <v>57</v>
@@ -2984,24 +2993,52 @@
         <v>1</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I67" s="16"/>
       <c r="J67" s="16" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="J70" s="18"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B68" s="23">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="16">
+        <v>1</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="G68" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="H68" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J71" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Assembly/SE842170047_BOM.xlsx
+++ b/Assembly/SE842170047_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\BHPPS\EEDev\EEDev-MAPS_SENSOR_HEAD_BOARD_PR\Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{417A97F9-F7C2-4161-BA91-83B8A945DA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A247E1E4-3E46-4E5D-9B58-CC15CBAA21C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="1152" windowWidth="15852" windowHeight="11328" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29715" yWindow="1890" windowWidth="15855" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
